--- a/data/trans_dic/P16A10-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05642516023614124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05187377853203643</v>
+        <v>0.05187377853203642</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04052053252097733</v>
@@ -685,7 +685,7 @@
         <v>0.04996991257256419</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0258193708647355</v>
+        <v>0.02581937086473549</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04432536209759021</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03037437385393191</v>
+        <v>0.02924991843523181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03517877827448206</v>
+        <v>0.03789297452500788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0369861101528488</v>
+        <v>0.03656602100749803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03683550297934151</v>
+        <v>0.0378649736902192</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02042217648419012</v>
+        <v>0.02248685499927043</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03054508882812569</v>
+        <v>0.02804492786417255</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01560837489784618</v>
+        <v>0.01633242318042791</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03019767876206348</v>
+        <v>0.0298749894539808</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02292494849174772</v>
+        <v>0.02400908483169918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03791576950502872</v>
+        <v>0.03728601523628702</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02995264019002062</v>
+        <v>0.03065289888604386</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07092298435462814</v>
+        <v>0.06914055016261039</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08329904648675687</v>
+        <v>0.08434240260432352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08754200943281078</v>
+        <v>0.08259544183126824</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07172290883745239</v>
+        <v>0.07209339220927759</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07133288724080922</v>
+        <v>0.07016742800690426</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02213462611953302</v>
+        <v>0.02165150413995557</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08135961384451504</v>
+        <v>0.07907198437941797</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03830506569948686</v>
+        <v>0.03810035749506128</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06097498496571383</v>
+        <v>0.06164948326935933</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05113190384619518</v>
+        <v>0.05235121854072568</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07125571925698856</v>
+        <v>0.07447958672149235</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05164456965810961</v>
+        <v>0.05178820601115992</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01771694171432475</v>
+        <v>0.01729633730999107</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02048375017722412</v>
+        <v>0.02004641758758838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0291804066303517</v>
+        <v>0.02987872552071343</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03197030421358547</v>
+        <v>0.03431181389542992</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006405424118832107</v>
+        <v>0.006134263563985796</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005769425720537248</v>
+        <v>0.006325827694842774</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008599737711940563</v>
+        <v>0.008742976189907334</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01647044097623285</v>
+        <v>0.01603346662270847</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01388272524972055</v>
+        <v>0.01379176681844826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02012313271183183</v>
+        <v>0.02182652820213314</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02438753618186618</v>
+        <v>0.02496395065864393</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05733735563305257</v>
+        <v>0.05910178372769984</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06317607402891035</v>
+        <v>0.06597868127516358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07155377499642519</v>
+        <v>0.07177712420565585</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06539912251459706</v>
+        <v>0.06879812442829229</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04187074785014467</v>
+        <v>0.03744551368533348</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02824342895335559</v>
+        <v>0.03086150670417775</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04340701817711413</v>
+        <v>0.04226704359091628</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.026863625211366</v>
+        <v>0.02746846623401096</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04235280080244345</v>
+        <v>0.04215962204114818</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04039707177942604</v>
+        <v>0.040539226345721</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04776915867299115</v>
+        <v>0.05190709189403427</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04511053898046942</v>
+        <v>0.04467396531003753</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07032426422146043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07190756211854345</v>
+        <v>0.07190756211854343</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03549858791629091</v>
@@ -969,7 +969,7 @@
         <v>0.06591159267577848</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07124588394345524</v>
+        <v>0.07124588394345525</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04408442359358634</v>
+        <v>0.04414507068421693</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04277747447802416</v>
+        <v>0.04099982194741986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0500020276808646</v>
+        <v>0.0506349536563355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05185169799534491</v>
+        <v>0.05293904929354147</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01278076167550445</v>
+        <v>0.01183777509432633</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01682996186860317</v>
+        <v>0.01756666023436182</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02386048978587736</v>
+        <v>0.02116933426664144</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04144405143843014</v>
+        <v>0.04173990936707896</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.040725578663111</v>
+        <v>0.03941548186335289</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03821387981191939</v>
+        <v>0.0383795405623154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04926046523406881</v>
+        <v>0.04758756119504295</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05453758281598521</v>
+        <v>0.05559572766922573</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08532661751139556</v>
+        <v>0.0861296133640938</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08079445438771371</v>
+        <v>0.08163699084393834</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09311543293721322</v>
+        <v>0.09391435475904657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09594701038210801</v>
+        <v>0.09636683951617267</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07305352999515306</v>
+        <v>0.06975559635473307</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06666430795019246</v>
+        <v>0.07085463887658437</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1050005845596799</v>
+        <v>0.09974904933170108</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1233628742524542</v>
+        <v>0.1227088525743908</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07486482123828943</v>
+        <v>0.07464794484966775</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06895679016062624</v>
+        <v>0.06946367433084415</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08598718401794819</v>
+        <v>0.08847114227745584</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0932295371219352</v>
+        <v>0.09264934755917623</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.03606242234302105</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03579548508520388</v>
+        <v>0.03579548508520387</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06076545365091734</v>
@@ -1105,7 +1105,7 @@
         <v>0.05615733455333419</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05498251656957428</v>
+        <v>0.05498251656957431</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05928738143365556</v>
+        <v>0.0576272303714649</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04465901225793802</v>
+        <v>0.04563239382109942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05613837865254299</v>
+        <v>0.0564187152023077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05733691067666277</v>
+        <v>0.05605920901809725</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02889568495237766</v>
+        <v>0.0269943714769973</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01812034330486267</v>
+        <v>0.01815713124151619</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02480386494803886</v>
+        <v>0.02541022394390018</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02602495477071634</v>
+        <v>0.02658425367143652</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0513724471597802</v>
+        <v>0.05092452292334236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03807313556467937</v>
+        <v>0.03726382594607919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04634584935471656</v>
+        <v>0.0462444890997891</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04628418838582679</v>
+        <v>0.04658193931527162</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08730514662275904</v>
+        <v>0.08728832139282872</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07308206649129655</v>
+        <v>0.07388999088840269</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08762746248536736</v>
+        <v>0.08672957429952205</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08325970276279625</v>
+        <v>0.08444673199421748</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05917132883265368</v>
+        <v>0.05558433293963803</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04353488232843802</v>
+        <v>0.0451055170298244</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05276144643380203</v>
+        <v>0.05428549490076161</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04642294794510253</v>
+        <v>0.04697712814461823</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07333406548980241</v>
+        <v>0.07303475981967514</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05713685400818549</v>
+        <v>0.05699374954832402</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06665986839959112</v>
+        <v>0.06753939137636672</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06398535541976424</v>
+        <v>0.06439585514778143</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.06916546274501331</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05344551535472856</v>
+        <v>0.05344551535472855</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06326392586558248</v>
@@ -1241,7 +1241,7 @@
         <v>0.06197526871711875</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06638414650452949</v>
+        <v>0.06638414650452948</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03312813472382221</v>
+        <v>0.0323338779089235</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0392765005456195</v>
+        <v>0.03971003030302041</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05067957886437537</v>
+        <v>0.05238751448138599</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0397260929815588</v>
+        <v>0.0389911237331362</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04315242310082697</v>
+        <v>0.04429820100207624</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06415904092641433</v>
+        <v>0.06528672126690369</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03993343408300605</v>
+        <v>0.03937511245112724</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06192859238659466</v>
+        <v>0.06291180228884681</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04657709660214431</v>
+        <v>0.04414366516738166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05992319154632887</v>
+        <v>0.06000205471765282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04887996055859647</v>
+        <v>0.05071912107904684</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05683302065857518</v>
+        <v>0.05717831196596577</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07809561591211986</v>
+        <v>0.07885007520115482</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08179878232961572</v>
+        <v>0.08310353123802378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08929440138977308</v>
+        <v>0.09027423912259208</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0724665137847369</v>
+        <v>0.07141666999040791</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08523776177602604</v>
+        <v>0.08684847951438214</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1048129575505429</v>
+        <v>0.1040914913174568</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07523439484035375</v>
+        <v>0.07515211338314537</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09016300496005633</v>
+        <v>0.08991430114020665</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07560039235084567</v>
+        <v>0.07645173299575327</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08945076381724454</v>
+        <v>0.08925652098469715</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07636150920940751</v>
+        <v>0.07849685492377549</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07863173494635672</v>
+        <v>0.07773674674805882</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.08082142937013359</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08589545929686736</v>
+        <v>0.08589545929686734</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05796633062131975</v>
@@ -1377,7 +1377,7 @@
         <v>0.06387139302749029</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.06798105044281794</v>
+        <v>0.06798105044281791</v>
       </c>
     </row>
     <row r="20">
@@ -1391,35 +1391,35 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.004274537898778528</v>
+        <v>0.007282766187233016</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05752153528048578</v>
+        <v>0.05727606335981097</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04881988659861408</v>
+        <v>0.05082843977383998</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06441925310382331</v>
+        <v>0.06459302074130314</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07142721137232859</v>
+        <v>0.07021385917763628</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04735854337176866</v>
+        <v>0.04560814343072035</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04366149187002203</v>
+        <v>0.04312811439646745</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04891800590244742</v>
+        <v>0.05086903099889262</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05589418407015598</v>
+        <v>0.05495123898804091</v>
       </c>
     </row>
     <row r="21">
@@ -1430,38 +1430,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01383223973545598</v>
+        <v>0.01491349943774174</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05158948094380301</v>
+        <v>0.0558128674747726</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01534855572387085</v>
+        <v>0.01528213525625008</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08554425270781753</v>
+        <v>0.0861027013644208</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07836937495234435</v>
+        <v>0.08123558447784809</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09996348489138529</v>
+        <v>0.1007502064021739</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1018931907854899</v>
+        <v>0.1010706484657113</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07034014841598794</v>
+        <v>0.07128368190637101</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06884282874902639</v>
+        <v>0.06880517368212476</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07904089027352246</v>
+        <v>0.0803348765187409</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08147317842619073</v>
+        <v>0.08139917485792759</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.05998724735031206</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05696086700989424</v>
+        <v>0.05696086700989426</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.05297137162262482</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04707079532269237</v>
+        <v>0.04737050256926457</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04483137326410292</v>
+        <v>0.04511568385412475</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0517572520111457</v>
+        <v>0.05203475083099016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05075063427314806</v>
+        <v>0.05029859564637465</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04514019154908391</v>
+        <v>0.04536243708720125</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04042490945365333</v>
+        <v>0.04098601043301655</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04567200928889333</v>
+        <v>0.0465001486635341</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04824922955007822</v>
+        <v>0.04875537571791585</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04837337946767419</v>
+        <v>0.04860512931843174</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0447379791839642</v>
+        <v>0.04495785153612389</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05122658065795849</v>
+        <v>0.05149010625222366</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05104259114780239</v>
+        <v>0.05183597654194714</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06281990967128744</v>
+        <v>0.06218955827605754</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06165053726905325</v>
+        <v>0.06102876045333332</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06865359061814989</v>
+        <v>0.06856892858397523</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06416610342580822</v>
+        <v>0.06415953008161818</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06037222606960329</v>
+        <v>0.06221210701594347</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05488998894822329</v>
+        <v>0.05539137389994258</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06283071788420164</v>
+        <v>0.0626663014102886</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06070492344001888</v>
+        <v>0.06160502577248267</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05887862706843403</v>
+        <v>0.05981001783837268</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0552486514791805</v>
+        <v>0.05574975431721441</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06284611340478005</v>
+        <v>0.06235135268752599</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06071510530911926</v>
+        <v>0.06068221154108808</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14391</v>
+        <v>13858</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15381</v>
+        <v>16567</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15870</v>
+        <v>15690</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20282</v>
+        <v>20849</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6263</v>
+        <v>6896</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10601</v>
+        <v>9733</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7623</v>
+        <v>7977</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>23568</v>
+        <v>23316</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17232</v>
+        <v>18047</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29428</v>
+        <v>28939</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>31122</v>
+        <v>31849</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33602</v>
+        <v>32757</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36419</v>
+        <v>36875</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37564</v>
+        <v>35441</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>39492</v>
+        <v>39696</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21876</v>
+        <v>21519</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6960</v>
+        <v>6808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28236</v>
+        <v>27442</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18709</v>
+        <v>18609</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>47588</v>
+        <v>48115</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>38434</v>
+        <v>39351</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>55305</v>
+        <v>57807</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>53660</v>
+        <v>53809</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6501</v>
+        <v>6347</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8542</v>
+        <v>8360</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11008</v>
+        <v>11271</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15448</v>
+        <v>16580</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2382</v>
+        <v>2281</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2148</v>
+        <v>2355</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3639</v>
+        <v>3700</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12168</v>
+        <v>11846</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10468</v>
+        <v>10400</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>15082</v>
+        <v>16359</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>22104</v>
+        <v>22626</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21039</v>
+        <v>21686</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26346</v>
+        <v>27514</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26992</v>
+        <v>27076</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31602</v>
+        <v>33244</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15570</v>
+        <v>13925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9519</v>
+        <v>10401</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16159</v>
+        <v>15735</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11367</v>
+        <v>11623</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>31290</v>
+        <v>31147</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>30461</v>
+        <v>30569</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>35803</v>
+        <v>38904</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>40886</v>
+        <v>40490</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23911</v>
+        <v>23944</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26793</v>
+        <v>25680</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26097</v>
+        <v>26427</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24454</v>
+        <v>24967</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2144</v>
+        <v>1986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4341</v>
+        <v>4531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3964</v>
+        <v>3517</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7771</v>
+        <v>7826</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28922</v>
+        <v>27992</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>33792</v>
+        <v>33938</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>33893</v>
+        <v>32742</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>35946</v>
+        <v>36644</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46280</v>
+        <v>46716</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50605</v>
+        <v>51132</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48598</v>
+        <v>49015</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45250</v>
+        <v>45448</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12257</v>
+        <v>11704</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17195</v>
+        <v>18276</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17443</v>
+        <v>16571</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23130</v>
+        <v>23008</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53167</v>
+        <v>53013</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>60977</v>
+        <v>61425</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>59162</v>
+        <v>60871</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>61448</v>
+        <v>61066</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>73418</v>
+        <v>71362</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51721</v>
+        <v>52848</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>64539</v>
+        <v>64861</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>64896</v>
+        <v>63450</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20640</v>
+        <v>19282</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13892</v>
+        <v>13920</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20485</v>
+        <v>20986</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>22397</v>
+        <v>22879</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>100311</v>
+        <v>99436</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>73283</v>
+        <v>71725</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>91557</v>
+        <v>91357</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>92219</v>
+        <v>92813</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>108113</v>
+        <v>108092</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>84639</v>
+        <v>85574</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>100740</v>
+        <v>99708</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>94237</v>
+        <v>95580</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42265</v>
+        <v>39703</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33376</v>
+        <v>34580</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>43574</v>
+        <v>44833</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39952</v>
+        <v>40429</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>143194</v>
+        <v>142609</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>109976</v>
+        <v>109701</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>131688</v>
+        <v>133425</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>127488</v>
+        <v>128306</v>
       </c>
     </row>
     <row r="20">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11580</v>
+        <v>11302</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20054</v>
+        <v>20276</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>31457</v>
+        <v>32517</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22524</v>
+        <v>22107</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>24543</v>
+        <v>25195</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>48792</v>
+        <v>49650</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>29481</v>
+        <v>29068</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>51365</v>
+        <v>52180</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>42771</v>
+        <v>40537</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>76167</v>
+        <v>76268</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>66425</v>
+        <v>68925</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>79361</v>
+        <v>79843</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27297</v>
+        <v>27561</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>41766</v>
+        <v>42432</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>55426</v>
+        <v>56034</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>41087</v>
+        <v>40492</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48479</v>
+        <v>49395</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>79709</v>
+        <v>79160</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>55541</v>
+        <v>55481</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>74783</v>
+        <v>74576</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>69423</v>
+        <v>70205</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>113699</v>
+        <v>113453</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>103771</v>
+        <v>106673</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>109801</v>
+        <v>108551</v>
       </c>
     </row>
     <row r="24">
@@ -2773,35 +2773,35 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1136</v>
+        <v>1936</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>71831</v>
+        <v>71524</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>53967</v>
+        <v>56188</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>69703</v>
+        <v>69891</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>60213</v>
+        <v>59190</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>73262</v>
+        <v>70554</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>59872</v>
+        <v>59141</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>66977</v>
+        <v>69648</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>60378</v>
+        <v>59359</v>
       </c>
     </row>
     <row r="27">
@@ -2812,38 +2812,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4125</v>
+        <v>4447</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13715</v>
+        <v>14837</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>3641</v>
+        <v>3625</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>106824</v>
+        <v>107522</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>86633</v>
+        <v>89801</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>108163</v>
+        <v>109014</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>85895</v>
+        <v>85202</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>108813</v>
+        <v>110273</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>94403</v>
+        <v>94351</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>108220</v>
+        <v>109992</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>88009</v>
+        <v>87929</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>153883</v>
+        <v>154862</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>153105</v>
+        <v>154076</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>175236</v>
+        <v>176175</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>174658</v>
+        <v>173102</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>152489</v>
+        <v>153240</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>143185</v>
+        <v>145173</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>161295</v>
+        <v>164220</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>175245</v>
+        <v>177083</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>321552</v>
+        <v>323093</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>311249</v>
+        <v>312778</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>354351</v>
+        <v>356173</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>361053</v>
+        <v>366665</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>205369</v>
+        <v>203308</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>210545</v>
+        <v>208421</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>232442</v>
+        <v>232155</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>220827</v>
+        <v>220804</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>203945</v>
+        <v>210160</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>194421</v>
+        <v>196197</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>221893</v>
+        <v>221312</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>220485</v>
+        <v>223754</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>391384</v>
+        <v>397575</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>384373</v>
+        <v>387859</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>434727</v>
+        <v>431304</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>429472</v>
+        <v>429239</v>
       </c>
     </row>
     <row r="32">
